--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3107,7 +3107,7 @@
         <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -4603,7 +4603,7 @@
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -7377,7 +7377,7 @@
         <v>74</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -8125,7 +8125,7 @@
         <v>74</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/ClinicalUseDefinition-interaction-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/ClinicalUseDefinition-interaction-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -510,7 +510,7 @@
     <t>ClinicalUseDefinition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -917,7 +917,7 @@
     <t>The specific substance that interacts.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/atcClassification</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/atcClassification</t>
   </si>
   <si>
     <t>ClinicalUseDefinition.interaction.type</t>
@@ -1462,7 +1462,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="81.53515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="374">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -442,7 +442,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -485,7 +485,7 @@
     <t>Overall defining type of this clinical use definition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-type|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-type|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>(the type of IDMP class, out of Contraindication, Therapeutic Indication, Interactions, Undesirable Effects)</t>
@@ -670,6 +670,22 @@
     <t>(the link from Contraindication to Therapeutic Indication)</t>
   </si>
   <si>
+    <t>ClinicalUseDefinition.contraindication.applicability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression
+</t>
+  </si>
+  <si>
+    <t>An expression that returns true or false, indicating whether the indication is applicable or not, after having applied its other elements</t>
+  </si>
+  <si>
+    <t>An expression that returns true or false, indicating whether the indication is applicable or not, after having applied its other elements.</t>
+  </si>
+  <si>
+    <t>The expression may be inlined or may be a reference to a named expression within a logic library referenced by the library element.</t>
+  </si>
+  <si>
     <t>ClinicalUseDefinition.contraindication.otherTherapy</t>
   </si>
   <si>
@@ -834,6 +850,9 @@
     <t>Therapeutic Indication.Undesirable Effects</t>
   </si>
   <si>
+    <t>ClinicalUseDefinition.indication.applicability</t>
+  </si>
+  <si>
     <t>ClinicalUseDefinition.indication.otherTherapy</t>
   </si>
   <si>
@@ -1012,6 +1031,19 @@
   </si>
   <si>
     <t>Population Specifics</t>
+  </si>
+  <si>
+    <t>ClinicalUseDefinition.library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Library)
+</t>
+  </si>
+  <si>
+    <t>Logic used by the clinical use definition</t>
+  </si>
+  <si>
+    <t>Logic used by the clinical use definition.</t>
   </si>
   <si>
     <t>ClinicalUseDefinition.undesirableEffect</t>
@@ -1435,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM68"/>
+  <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4039,7 +4071,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4048,18 +4080,20 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4114,7 +4148,7 @@
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
@@ -4123,7 +4157,7 @@
         <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4134,10 +4168,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4148,7 +4182,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4157,16 +4191,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4217,47 +4251,47 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4269,17 +4303,15 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4328,19 +4360,19 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4354,14 +4386,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4374,26 +4406,24 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4441,7 +4471,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4462,47 +4492,51 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4526,13 +4560,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4550,36 +4584,36 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4602,13 +4636,13 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4635,13 +4669,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4659,7 +4693,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
@@ -4674,7 +4708,7 @@
         <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4685,10 +4719,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4696,10 +4730,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4711,13 +4745,13 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4744,13 +4778,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4768,10 +4802,10 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>83</v>
@@ -4783,7 +4817,7 @@
         <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4794,10 +4828,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4808,7 +4842,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4817,16 +4851,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4877,7 +4911,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4889,35 +4923,35 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4929,17 +4963,15 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -4988,19 +5020,19 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5014,14 +5046,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5034,26 +5066,24 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="O33" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5101,7 +5131,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5122,47 +5152,51 @@
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5186,13 +5220,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5210,36 +5244,36 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5265,10 +5299,10 @@
         <v>189</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5298,10 +5332,10 @@
         <v>192</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5319,7 +5353,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5334,7 +5368,7 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5345,10 +5379,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5359,7 +5393,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5374,10 +5408,10 @@
         <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5407,10 +5441,10 @@
         <v>192</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5428,13 +5462,13 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
@@ -5443,7 +5477,7 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5454,10 +5488,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5468,7 +5502,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5483,10 +5517,10 @@
         <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5513,13 +5547,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5537,13 +5571,13 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
@@ -5552,7 +5586,7 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5563,10 +5597,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5589,13 +5623,13 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5622,13 +5656,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5646,7 +5680,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5686,7 +5720,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5698,13 +5732,13 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5761,7 +5795,7 @@
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
@@ -5770,7 +5804,7 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5781,10 +5815,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5807,13 +5841,13 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5864,7 +5898,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5879,7 +5913,7 @@
         <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5890,10 +5924,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5913,18 +5947,20 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -5973,7 +6009,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5988,7 +6024,7 @@
         <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -5999,10 +6035,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6013,7 +6049,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6022,16 +6058,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6082,47 +6118,47 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6131,20 +6167,18 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>130</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6193,72 +6227,68 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6306,19 +6336,19 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6327,19 +6357,19 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6355,18 +6385,20 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6415,7 +6447,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6427,56 +6459,60 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6524,19 +6560,19 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6545,19 +6581,19 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6573,20 +6609,18 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6635,7 +6669,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6647,60 +6681,56 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6748,19 +6778,19 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -6769,26 +6799,26 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -6797,18 +6827,20 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -6833,92 +6865,96 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -6942,13 +6978,13 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -6966,36 +7002,36 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7003,7 +7039,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>83</v>
@@ -7018,13 +7054,13 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7054,31 +7090,29 @@
         <v>192</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>83</v>
@@ -7090,7 +7124,7 @@
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7101,12 +7135,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7127,13 +7163,13 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7160,13 +7196,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7184,10 +7220,10 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>83</v>
@@ -7199,7 +7235,7 @@
         <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7210,10 +7246,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7239,10 +7275,10 @@
         <v>155</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7272,10 +7308,10 @@
         <v>192</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7293,7 +7329,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7308,7 +7344,7 @@
         <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7319,10 +7355,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7333,7 +7369,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7345,13 +7381,13 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7381,10 +7417,10 @@
         <v>192</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -7402,13 +7438,13 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
@@ -7417,7 +7453,7 @@
         <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7428,10 +7464,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7442,7 +7478,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7454,13 +7490,13 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>320</v>
+        <v>155</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7487,13 +7523,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7511,13 +7547,13 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
@@ -7526,7 +7562,7 @@
         <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7537,10 +7573,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7551,7 +7587,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7563,13 +7599,13 @@
         <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7596,13 +7632,13 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -7620,13 +7656,13 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
@@ -7635,7 +7671,7 @@
         <v>95</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7646,10 +7682,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7660,7 +7696,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -7669,16 +7705,16 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>177</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7729,40 +7765,40 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>179</v>
+        <v>325</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7778,20 +7814,18 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
@@ -7840,7 +7874,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>182</v>
+        <v>330</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -7852,60 +7886,56 @@
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -7953,36 +7983,36 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>187</v>
+        <v>334</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>74</v>
+        <v>337</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8002,16 +8032,16 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>332</v>
+        <v>177</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8038,13 +8068,13 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8062,7 +8092,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>331</v>
+        <v>179</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8074,35 +8104,35 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8111,18 +8141,20 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8147,13 +8179,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>341</v>
+        <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8171,68 +8203,72 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>337</v>
+        <v>182</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>344</v>
+        <v>185</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8256,13 +8292,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>346</v>
+        <v>74</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>347</v>
+        <v>74</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8280,36 +8316,36 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>343</v>
+        <v>187</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8320,7 +8356,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8332,13 +8368,13 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8365,13 +8401,13 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -8389,7 +8425,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8404,7 +8440,7 @@
         <v>95</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8415,10 +8451,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8438,16 +8474,16 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>177</v>
+        <v>348</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>178</v>
+        <v>349</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8474,13 +8510,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -8498,7 +8534,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>179</v>
+        <v>347</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8510,16 +8546,16 @@
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65">
@@ -8531,14 +8567,14 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
@@ -8547,20 +8583,18 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -8585,13 +8619,13 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -8609,72 +8643,68 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>182</v>
+        <v>353</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>185</v>
+        <v>360</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>74</v>
       </c>
@@ -8722,36 +8752,36 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>187</v>
+        <v>359</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8771,16 +8801,16 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8831,7 +8861,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -8843,35 +8873,35 @@
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -8880,18 +8910,20 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -8916,51 +8948,382 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X71" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH68" t="s" s="2">
+      <c r="Y71" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH71" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AI68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
+      <c r="AI71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AK68" t="s" s="2">
+      <c r="AK71" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AL68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AL71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="375">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A single issue - either an indication, contraindication, interaction or an undesirable effect for a medicinal product, medication, device or procedure</t>
@@ -1663,13 +1667,13 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1735,21 +1739,21 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1760,7 +1764,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1769,19 +1773,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1831,13 +1835,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1857,10 +1861,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1871,7 +1875,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1880,16 +1884,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1940,19 +1944,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1966,10 +1970,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1980,28 +1984,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2051,19 +2055,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2077,10 +2081,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2091,7 +2095,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2103,16 +2107,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2138,13 +2142,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2162,19 +2166,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2188,21 +2192,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2214,16 +2218,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2273,19 +2277,19 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -2294,19 +2298,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2325,16 +2329,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2384,7 +2388,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2405,19 +2409,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2436,16 +2440,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2495,7 +2499,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2507,7 +2511,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2516,19 +2520,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2541,25 +2545,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2608,7 +2612,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2620,7 +2624,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2629,15 +2633,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2657,16 +2661,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2717,7 +2721,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2729,13 +2733,13 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2743,10 +2747,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2754,10 +2758,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2766,16 +2770,16 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2787,7 +2791,7 @@
         <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>74</v>
@@ -2802,13 +2806,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -2826,22 +2830,22 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2852,10 +2856,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2875,16 +2879,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2911,13 +2915,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -2935,7 +2939,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2947,10 +2951,10 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2961,10 +2965,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2972,7 +2976,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>76</v>
@@ -2984,16 +2988,16 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3044,7 +3048,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3056,10 +3060,10 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3070,10 +3074,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3084,7 +3088,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3093,16 +3097,16 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3129,13 +3133,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3153,22 +3157,22 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3179,10 +3183,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3202,16 +3206,16 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3262,22 +3266,22 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3288,10 +3292,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3302,7 +3306,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3314,13 +3318,13 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3371,13 +3375,13 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
@@ -3392,19 +3396,19 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3423,16 +3427,16 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3482,7 +3486,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3494,7 +3498,7 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
@@ -3503,19 +3507,19 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3528,25 +3532,25 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3595,7 +3599,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3607,7 +3611,7 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3616,15 +3620,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3635,7 +3639,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3644,16 +3648,16 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3680,13 +3684,13 @@
         <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>74</v>
@@ -3704,22 +3708,22 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3730,10 +3734,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3744,7 +3748,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3753,16 +3757,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3789,13 +3793,13 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>74</v>
@@ -3813,22 +3817,22 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3839,10 +3843,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3862,16 +3866,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3898,13 +3902,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3922,7 +3926,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3934,10 +3938,10 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3948,10 +3952,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3971,16 +3975,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4031,7 +4035,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4043,10 +4047,10 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4057,10 +4061,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4071,7 +4075,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4083,16 +4087,16 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4142,22 +4146,22 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4168,10 +4172,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4191,16 +4195,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4251,7 +4255,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4263,10 +4267,10 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4277,10 +4281,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4291,7 +4295,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4303,13 +4307,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4360,13 +4364,13 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
@@ -4381,19 +4385,19 @@
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4412,16 +4416,16 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4471,7 +4475,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4483,7 +4487,7 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4492,19 +4496,19 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4517,25 +4521,25 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4584,7 +4588,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4596,7 +4600,7 @@
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4605,15 +4609,15 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4621,10 +4625,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4633,16 +4637,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4669,13 +4673,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4693,22 +4697,22 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4719,10 +4723,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4730,10 +4734,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4742,16 +4746,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4778,13 +4782,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4802,22 +4806,22 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4828,10 +4832,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4851,16 +4855,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4911,22 +4915,22 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4937,10 +4941,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4951,7 +4955,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4963,13 +4967,13 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5020,13 +5024,13 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
@@ -5041,19 +5045,19 @@
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5072,16 +5076,16 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5131,7 +5135,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5143,7 +5147,7 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5152,19 +5156,19 @@
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5177,25 +5181,25 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5244,7 +5248,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5256,7 +5260,7 @@
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5265,15 +5269,15 @@
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5284,7 +5288,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5293,16 +5297,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5329,13 +5333,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5353,22 +5357,22 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5379,10 +5383,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5393,7 +5397,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5402,16 +5406,16 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5438,13 +5442,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5462,22 +5466,22 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5488,10 +5492,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5511,16 +5515,16 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5547,13 +5551,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5571,7 +5575,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5583,10 +5587,10 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5597,10 +5601,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5611,7 +5615,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5620,16 +5624,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5656,13 +5660,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5680,22 +5684,22 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -5706,10 +5710,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5720,7 +5724,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5729,16 +5733,16 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5789,22 +5793,22 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5815,10 +5819,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5838,16 +5842,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5898,7 +5902,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5910,10 +5914,10 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5924,10 +5928,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5938,7 +5942,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5950,16 +5954,16 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6009,22 +6013,22 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6035,10 +6039,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6058,16 +6062,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6118,7 +6122,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6130,10 +6134,10 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6144,10 +6148,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6158,7 +6162,7 @@
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6167,16 +6171,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6227,22 +6231,22 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6253,10 +6257,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6267,7 +6271,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6279,13 +6283,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6336,13 +6340,13 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
@@ -6357,19 +6361,19 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6388,16 +6392,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6447,7 +6451,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6459,7 +6463,7 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6468,19 +6472,19 @@
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6493,25 +6497,25 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6560,7 +6564,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6572,7 +6576,7 @@
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6581,15 +6585,15 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6609,16 +6613,16 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6669,7 +6673,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6681,10 +6685,10 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6695,10 +6699,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6709,7 +6713,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -6721,13 +6725,13 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6778,13 +6782,13 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
@@ -6799,19 +6803,19 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6830,16 +6834,16 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6889,7 +6893,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -6901,7 +6905,7 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
@@ -6910,19 +6914,19 @@
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6935,25 +6939,25 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7002,7 +7006,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7014,7 +7018,7 @@
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -7023,15 +7027,15 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7039,10 +7043,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7051,16 +7055,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7087,44 +7091,44 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7135,13 +7139,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>74</v>
@@ -7151,7 +7155,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7160,16 +7164,16 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7196,13 +7200,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7220,22 +7224,22 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7246,10 +7250,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7260,7 +7264,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7269,16 +7273,16 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7305,13 +7309,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7329,22 +7333,22 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7355,10 +7359,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7369,7 +7373,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7378,16 +7382,16 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7414,13 +7418,13 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -7438,22 +7442,22 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7464,10 +7468,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7478,7 +7482,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7487,16 +7491,16 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7523,13 +7527,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7547,22 +7551,22 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7573,10 +7577,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7596,16 +7600,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7632,13 +7636,13 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -7656,7 +7660,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7668,10 +7672,10 @@
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7682,10 +7686,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7705,16 +7709,16 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7765,7 +7769,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7777,10 +7781,10 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7791,10 +7795,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7814,16 +7818,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7874,7 +7878,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -7886,10 +7890,10 @@
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -7900,10 +7904,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7923,16 +7927,16 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7983,22 +7987,22 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8009,10 +8013,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8023,7 +8027,7 @@
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -8035,13 +8039,13 @@
         <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8092,13 +8096,13 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>74</v>
@@ -8113,19 +8117,19 @@
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8144,16 +8148,16 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8203,7 +8207,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8215,7 +8219,7 @@
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
@@ -8224,19 +8228,19 @@
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8249,25 +8253,25 @@
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8316,7 +8320,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8328,7 +8332,7 @@
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
@@ -8337,15 +8341,15 @@
         <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8356,7 +8360,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8365,16 +8369,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8401,13 +8405,13 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -8425,22 +8429,22 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8451,10 +8455,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8465,7 +8469,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8474,16 +8478,16 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8510,13 +8514,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -8534,22 +8538,22 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8560,10 +8564,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8574,7 +8578,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
@@ -8583,16 +8587,16 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8619,13 +8623,13 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -8643,22 +8647,22 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8669,10 +8673,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8692,16 +8696,16 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8752,22 +8756,22 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -8778,10 +8782,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8792,7 +8796,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -8804,13 +8808,13 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8861,13 +8865,13 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>74</v>
@@ -8882,19 +8886,19 @@
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -8913,16 +8917,16 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -8972,7 +8976,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -8984,7 +8988,7 @@
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -8993,19 +8997,19 @@
         <v>74</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9018,25 +9022,25 @@
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9085,7 +9089,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9097,7 +9101,7 @@
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
@@ -9106,15 +9110,15 @@
         <v>74</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9125,7 +9129,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9134,16 +9138,16 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9194,22 +9198,22 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9220,10 +9224,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9234,7 +9238,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9243,16 +9247,16 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9279,13 +9283,13 @@
         <v>74</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>74</v>
@@ -9303,22 +9307,22 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T13:49:45+00:00</t>
+    <t>2023-04-06T08:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
